--- a/DocumentCreator.Tests/resources/__StandardExcelFormats.xlsx
+++ b/DocumentCreator.Tests/resources/__StandardExcelFormats.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\localadm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\panos\repos\DocumentCreator\DocumentCreator.Tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -388,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -574,6 +574,9 @@
     <xf numFmtId="47" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:L2"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,6 +869,7 @@
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="185"/>
     <col min="8" max="8" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -897,6 +901,10 @@
       <c r="F2" s="142">
         <v>42</v>
       </c>
+      <c r="G2" s="185" t="str">
+        <f ca="1">CELL("format",C2)</f>
+        <v>F0</v>
+      </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
@@ -936,6 +944,10 @@
       <c r="F3" s="143">
         <v>42</v>
       </c>
+      <c r="G3" s="185" t="str">
+        <f t="shared" ref="G3:G66" ca="1" si="1">CELL("format",C3)</f>
+        <v>F2</v>
+      </c>
       <c r="H3" t="s">
         <v>1</v>
       </c>
@@ -949,7 +961,7 @@
         <v>31</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L23" si="1">H3&amp;I3&amp;J3&amp;K3</f>
+        <f t="shared" ref="L3:L23" si="2">H3&amp;I3&amp;J3&amp;K3</f>
         <v>Assert.Equal("31415,93", results.First(o =&gt; o.Name == "B2").Text);</v>
       </c>
     </row>
@@ -975,6 +987,10 @@
       <c r="F4" s="144">
         <v>42</v>
       </c>
+      <c r="G4" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>,0</v>
+      </c>
       <c r="H4" t="s">
         <v>2</v>
       </c>
@@ -988,7 +1004,7 @@
         <v>31</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("31.416", results.First(o =&gt; o.Name == "B3").Text);</v>
       </c>
     </row>
@@ -1014,6 +1030,10 @@
       <c r="F5" s="145">
         <v>42</v>
       </c>
+      <c r="G5" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>,2</v>
+      </c>
       <c r="H5" t="s">
         <v>3</v>
       </c>
@@ -1027,7 +1047,7 @@
         <v>31</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("31.415,93", results.First(o =&gt; o.Name == "B4").Text);</v>
       </c>
     </row>
@@ -1053,6 +1073,10 @@
       <c r="F6" s="146">
         <v>42</v>
       </c>
+      <c r="G6" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C0</v>
+      </c>
       <c r="H6" t="s">
         <v>4</v>
       </c>
@@ -1066,7 +1090,7 @@
         <v>31</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("31.416 €", results.First(o =&gt; o.Name == "B5").Text);</v>
       </c>
     </row>
@@ -1092,6 +1116,10 @@
       <c r="F7" s="147">
         <v>42</v>
       </c>
+      <c r="G7" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C0-</v>
+      </c>
       <c r="H7" t="s">
         <v>4</v>
       </c>
@@ -1105,7 +1133,7 @@
         <v>31</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("31.416 €", results.First(o =&gt; o.Name == "B6").Text);</v>
       </c>
     </row>
@@ -1131,6 +1159,10 @@
       <c r="F8" s="148">
         <v>42</v>
       </c>
+      <c r="G8" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C2</v>
+      </c>
       <c r="H8" t="s">
         <v>5</v>
       </c>
@@ -1144,7 +1176,7 @@
         <v>31</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("31.415,93 €", results.First(o =&gt; o.Name == "B7").Text);</v>
       </c>
     </row>
@@ -1170,6 +1202,10 @@
       <c r="F9" s="149">
         <v>42</v>
       </c>
+      <c r="G9" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C2-</v>
+      </c>
       <c r="H9" t="s">
         <v>5</v>
       </c>
@@ -1183,7 +1219,7 @@
         <v>31</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("31.415,93 €", results.First(o =&gt; o.Name == "B8").Text);</v>
       </c>
     </row>
@@ -1209,6 +1245,10 @@
       <c r="F10" s="150">
         <v>42</v>
       </c>
+      <c r="G10" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>P0</v>
+      </c>
       <c r="H10" t="s">
         <v>6</v>
       </c>
@@ -1222,7 +1262,7 @@
         <v>31</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("3141593%", results.First(o =&gt; o.Name == "B9").Text);</v>
       </c>
     </row>
@@ -1248,6 +1288,10 @@
       <c r="F11" s="151">
         <v>42</v>
       </c>
+      <c r="G11" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="H11" t="s">
         <v>7</v>
       </c>
@@ -1261,7 +1305,7 @@
         <v>31</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("3141592,65%", results.First(o =&gt; o.Name == "B10").Text);</v>
       </c>
     </row>
@@ -1287,6 +1331,10 @@
       <c r="F12" s="152">
         <v>42</v>
       </c>
+      <c r="G12" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S2</v>
+      </c>
       <c r="H12" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +1348,7 @@
         <v>31</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("3,14E+04", results.First(o =&gt; o.Name == "B11").Text);</v>
       </c>
     </row>
@@ -1326,6 +1374,10 @@
       <c r="F13" s="153">
         <v>42</v>
       </c>
+      <c r="G13" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>G</v>
+      </c>
       <c r="H13" t="s">
         <v>9</v>
       </c>
@@ -1339,7 +1391,7 @@
         <v>31</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("31416    ", results.First(o =&gt; o.Name == "B12").Text);</v>
       </c>
     </row>
@@ -1365,6 +1417,10 @@
       <c r="F14" s="154">
         <v>42</v>
       </c>
+      <c r="G14" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>G</v>
+      </c>
       <c r="H14" t="s">
         <v>10</v>
       </c>
@@ -1378,7 +1434,7 @@
         <v>31</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("31415 63/68", results.First(o =&gt; o.Name == "B13").Text);</v>
       </c>
     </row>
@@ -1404,6 +1460,10 @@
       <c r="F15" s="155">
         <v>42</v>
       </c>
+      <c r="G15" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
       <c r="H15" t="s">
         <v>11</v>
       </c>
@@ -1417,7 +1477,7 @@
         <v>31</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("3/1/1986", results.First(o =&gt; o.Name == "B14").Text);</v>
       </c>
     </row>
@@ -1443,6 +1503,10 @@
       <c r="F16" s="156">
         <v>42</v>
       </c>
+      <c r="G16" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
@@ -1456,7 +1520,7 @@
         <v>31</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("3-Ιαν-86", results.First(o =&gt; o.Name == "B15").Text);</v>
       </c>
     </row>
@@ -1482,6 +1546,10 @@
       <c r="F17" s="157">
         <v>42</v>
       </c>
+      <c r="G17" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D2</v>
+      </c>
       <c r="H17" t="s">
         <v>13</v>
       </c>
@@ -1495,7 +1563,7 @@
         <v>31</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("3-Ιαν", results.First(o =&gt; o.Name == "B16").Text);</v>
       </c>
     </row>
@@ -1521,6 +1589,10 @@
       <c r="F18" s="158">
         <v>42</v>
       </c>
+      <c r="G18" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D3</v>
+      </c>
       <c r="H18" t="s">
         <v>14</v>
       </c>
@@ -1534,7 +1606,7 @@
         <v>31</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("Ιαν-86", results.First(o =&gt; o.Name == "B17").Text);</v>
       </c>
     </row>
@@ -1560,6 +1632,10 @@
       <c r="F19" s="159">
         <v>42</v>
       </c>
+      <c r="G19" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D7</v>
+      </c>
       <c r="H19" t="s">
         <v>15</v>
       </c>
@@ -1573,7 +1649,7 @@
         <v>31</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("10:14 μμ", results.First(o =&gt; o.Name == "B18").Text);</v>
       </c>
     </row>
@@ -1599,6 +1675,10 @@
       <c r="F20" s="160">
         <v>42</v>
       </c>
+      <c r="G20" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D6</v>
+      </c>
       <c r="H20" t="s">
         <v>16</v>
       </c>
@@ -1612,7 +1692,7 @@
         <v>31</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("10:14:13 μμ", results.First(o =&gt; o.Name == "B19").Text);</v>
       </c>
     </row>
@@ -1638,6 +1718,10 @@
       <c r="F21" s="161">
         <v>42</v>
       </c>
+      <c r="G21" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D9</v>
+      </c>
       <c r="H21" t="s">
         <v>17</v>
       </c>
@@ -1651,7 +1735,7 @@
         <v>31</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("22:14", results.First(o =&gt; o.Name == "B20").Text);</v>
       </c>
     </row>
@@ -1677,6 +1761,10 @@
       <c r="F22" s="162">
         <v>42</v>
       </c>
+      <c r="G22" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D8</v>
+      </c>
       <c r="H22" t="s">
         <v>18</v>
       </c>
@@ -1690,7 +1778,7 @@
         <v>31</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("22:14:13", results.First(o =&gt; o.Name == "B21").Text);</v>
       </c>
     </row>
@@ -1716,6 +1804,10 @@
       <c r="F23" s="163">
         <v>42</v>
       </c>
+      <c r="G23" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
       <c r="H23" t="s">
         <v>19</v>
       </c>
@@ -1729,7 +1821,7 @@
         <v>31</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assert.Equal("3/1/1986 22:14", results.First(o =&gt; o.Name == "B22").Text);</v>
       </c>
     </row>
@@ -1755,6 +1847,10 @@
       <c r="F24" s="141">
         <v>42</v>
       </c>
+      <c r="G24" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>G</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="141">
@@ -1778,6 +1874,10 @@
       <c r="F25" s="141">
         <v>42</v>
       </c>
+      <c r="G25" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>G</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="141">
@@ -1801,6 +1901,10 @@
       <c r="F26" s="141">
         <v>42</v>
       </c>
+      <c r="G26" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>G</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="141">
@@ -1824,6 +1928,10 @@
       <c r="F27" s="141">
         <v>42</v>
       </c>
+      <c r="G27" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>G</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="141">
@@ -1847,6 +1955,10 @@
       <c r="F28" s="50">
         <v>42</v>
       </c>
+      <c r="G28" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="141">
@@ -1870,6 +1982,10 @@
       <c r="F29" s="50">
         <v>42</v>
       </c>
+      <c r="G29" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="141">
@@ -1893,6 +2009,10 @@
       <c r="F30" s="50">
         <v>42</v>
       </c>
+      <c r="G30" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="141">
@@ -1916,6 +2036,10 @@
       <c r="F31" s="50">
         <v>42</v>
       </c>
+      <c r="G31" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="141">
@@ -1939,6 +2063,10 @@
       <c r="F32" s="50">
         <v>42</v>
       </c>
+      <c r="G32" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="141">
@@ -1962,6 +2090,10 @@
       <c r="F33" s="55">
         <v>42</v>
       </c>
+      <c r="G33" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D8</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="141">
@@ -1985,6 +2117,10 @@
       <c r="F34" s="55">
         <v>42</v>
       </c>
+      <c r="G34" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D8</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="141">
@@ -2008,6 +2144,10 @@
       <c r="F35" s="55">
         <v>42</v>
       </c>
+      <c r="G35" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D8</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="141">
@@ -2031,6 +2171,10 @@
       <c r="F36" s="55">
         <v>42</v>
       </c>
+      <c r="G36" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D8</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="141">
@@ -2054,6 +2198,10 @@
       <c r="F37" s="50">
         <v>42</v>
       </c>
+      <c r="G37" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="164">
@@ -2077,6 +2225,10 @@
       <c r="F38" s="15">
         <v>42</v>
       </c>
+      <c r="G38" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>,0</v>
+      </c>
       <c r="H38" t="s">
         <v>20</v>
       </c>
@@ -2090,7 +2242,7 @@
         <v>31</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" ref="L38:L50" si="2">H38&amp;I38&amp;J38&amp;K38</f>
+        <f t="shared" ref="L38:L50" si="3">H38&amp;I38&amp;J38&amp;K38</f>
         <v>Assert.Equal("31.416  ", results.First(o =&gt; o.Name == "B37").Text);</v>
       </c>
     </row>
@@ -2116,6 +2268,10 @@
       <c r="F39" s="16">
         <v>42</v>
       </c>
+      <c r="G39" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>,0-</v>
+      </c>
       <c r="H39" t="s">
         <v>20</v>
       </c>
@@ -2129,7 +2285,7 @@
         <v>31</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Assert.Equal("31.416  ", results.First(o =&gt; o.Name == "B38").Text);</v>
       </c>
     </row>
@@ -2155,6 +2311,10 @@
       <c r="F40" s="17">
         <v>42</v>
       </c>
+      <c r="G40" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>,2</v>
+      </c>
       <c r="H40" t="s">
         <v>21</v>
       </c>
@@ -2168,7 +2328,7 @@
         <v>31</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Assert.Equal("31.415,93  ", results.First(o =&gt; o.Name == "B39").Text);</v>
       </c>
     </row>
@@ -2194,6 +2354,10 @@
       <c r="F41" s="18">
         <v>42</v>
       </c>
+      <c r="G41" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>,2-</v>
+      </c>
       <c r="H41" t="s">
         <v>21</v>
       </c>
@@ -2207,7 +2371,7 @@
         <v>31</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Assert.Equal("31.415,93  ", results.First(o =&gt; o.Name == "B40").Text);</v>
       </c>
     </row>
@@ -2233,6 +2397,10 @@
       <c r="F42" s="19">
         <v>42</v>
       </c>
+      <c r="G42" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>,0</v>
+      </c>
       <c r="H42" t="s">
         <v>22</v>
       </c>
@@ -2246,7 +2414,7 @@
         <v>31</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Assert.Equal(" 31.416   ", results.First(o =&gt; o.Name == "B41").Text);</v>
       </c>
     </row>
@@ -2272,6 +2440,10 @@
       <c r="F43" s="20">
         <v>42</v>
       </c>
+      <c r="G43" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C0</v>
+      </c>
       <c r="H43" t="s">
         <v>23</v>
       </c>
@@ -2285,7 +2457,7 @@
         <v>31</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Assert.Equal(" 31.416 € ", results.First(o =&gt; o.Name == "B42").Text);</v>
       </c>
     </row>
@@ -2311,6 +2483,10 @@
       <c r="F44" s="21">
         <v>42</v>
       </c>
+      <c r="G44" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>,2</v>
+      </c>
       <c r="H44" t="s">
         <v>24</v>
       </c>
@@ -2324,7 +2500,7 @@
         <v>31</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Assert.Equal(" 31.415,93   ", results.First(o =&gt; o.Name == "B43").Text);</v>
       </c>
     </row>
@@ -2350,6 +2526,10 @@
       <c r="F45" s="22">
         <v>42</v>
       </c>
+      <c r="G45" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C2</v>
+      </c>
       <c r="H45" t="s">
         <v>25</v>
       </c>
@@ -2363,7 +2543,7 @@
         <v>31</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Assert.Equal(" 31.415,93 € ", results.First(o =&gt; o.Name == "B44").Text);</v>
       </c>
     </row>
@@ -2389,6 +2569,10 @@
       <c r="F46" s="57">
         <v>42</v>
       </c>
+      <c r="G46" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>G</v>
+      </c>
       <c r="H46" t="s">
         <v>26</v>
       </c>
@@ -2402,7 +2586,7 @@
         <v>31</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Assert.Equal("14:13", results.First(o =&gt; o.Name == "B45").Text);</v>
       </c>
     </row>
@@ -2428,6 +2612,10 @@
       <c r="F47" s="58">
         <v>42</v>
       </c>
+      <c r="G47" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>G</v>
+      </c>
       <c r="H47" t="s">
         <v>27</v>
       </c>
@@ -2441,7 +2629,7 @@
         <v>31</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Assert.Equal("753982:14:13", results.First(o =&gt; o.Name == "B46").Text);</v>
       </c>
     </row>
@@ -2467,6 +2655,10 @@
       <c r="F48" s="59">
         <v>42</v>
       </c>
+      <c r="G48" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>G</v>
+      </c>
       <c r="H48" t="s">
         <v>28</v>
       </c>
@@ -2480,7 +2672,7 @@
         <v>31</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Assert.Equal("14:12,7", results.First(o =&gt; o.Name == "B47").Text);</v>
       </c>
     </row>
@@ -2506,6 +2698,10 @@
       <c r="F49" s="26">
         <v>42</v>
       </c>
+      <c r="G49" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>S1</v>
+      </c>
       <c r="H49" t="s">
         <v>29</v>
       </c>
@@ -2519,7 +2715,7 @@
         <v>31</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Assert.Equal("31,4E+3", results.First(o =&gt; o.Name == "B48").Text);</v>
       </c>
     </row>
@@ -2545,6 +2741,10 @@
       <c r="F50" s="27">
         <v>42</v>
       </c>
+      <c r="G50" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>G</v>
+      </c>
       <c r="H50" t="s">
         <v>30</v>
       </c>
@@ -2558,7 +2758,7 @@
         <v>31</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Assert.Equal("31415,92654", results.First(o =&gt; o.Name == "B49").Text);</v>
       </c>
     </row>
@@ -2584,6 +2784,10 @@
       <c r="F51" s="50">
         <v>42</v>
       </c>
+      <c r="G51" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="141">
@@ -2607,6 +2811,10 @@
       <c r="F52" s="50">
         <v>42</v>
       </c>
+      <c r="G52" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="141">
@@ -2630,6 +2838,10 @@
       <c r="F53" s="50">
         <v>42</v>
       </c>
+      <c r="G53" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="141">
@@ -2653,6 +2865,10 @@
       <c r="F54" s="50">
         <v>42</v>
       </c>
+      <c r="G54" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="141">
@@ -2676,6 +2892,10 @@
       <c r="F55" s="50">
         <v>42</v>
       </c>
+      <c r="G55" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="141">
@@ -2699,6 +2919,10 @@
       <c r="F56" s="50">
         <v>42</v>
       </c>
+      <c r="G56" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="141">
@@ -2722,6 +2946,10 @@
       <c r="F57" s="50">
         <v>42</v>
       </c>
+      <c r="G57" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="141">
@@ -2745,6 +2973,10 @@
       <c r="F58" s="50">
         <v>42</v>
       </c>
+      <c r="G58" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="141">
@@ -2768,6 +3000,10 @@
       <c r="F59" s="50">
         <v>42</v>
       </c>
+      <c r="G59" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D1</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="141">
@@ -2791,6 +3027,10 @@
       <c r="F60" s="37">
         <v>42</v>
       </c>
+      <c r="G60" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>F0</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="141">
@@ -2814,6 +3054,10 @@
       <c r="F61" s="38">
         <v>42</v>
       </c>
+      <c r="G61" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>F2</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="141">
@@ -2837,6 +3081,10 @@
       <c r="F62" s="39">
         <v>42</v>
       </c>
+      <c r="G62" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>,0</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="141">
@@ -2860,6 +3108,10 @@
       <c r="F63" s="40">
         <v>42</v>
       </c>
+      <c r="G63" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>,2</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="141">
@@ -2883,8 +3135,12 @@
       <c r="F64" s="41">
         <v>42</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="141">
         <f>A1</f>
         <v>64</v>
@@ -2906,8 +3162,12 @@
       <c r="F65" s="42">
         <v>42</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C0-</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="141">
         <f>A1</f>
         <v>65</v>
@@ -2929,8 +3189,12 @@
       <c r="F66" s="43">
         <v>42</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="185" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="141">
         <f>A1</f>
         <v>66</v>
@@ -2940,7 +3204,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C67" s="44">
-        <f t="shared" ref="C67:C130" si="3">A$1/100</f>
+        <f t="shared" ref="C67:C130" si="4">A$1/100</f>
         <v>31415.926535897932</v>
       </c>
       <c r="D67" s="44">
@@ -2952,8 +3216,12 @@
       <c r="F67" s="44">
         <v>42</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="185" t="str">
+        <f t="shared" ref="G67:G130" ca="1" si="5">CELL("format",C67)</f>
+        <v>C2-</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="141">
         <f>A1</f>
         <v>67</v>
@@ -2963,7 +3231,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C68" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D68" s="45">
@@ -2975,8 +3243,12 @@
       <c r="F68" s="45">
         <v>42</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>P0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="141">
         <f>A1</f>
         <v>68</v>
@@ -2986,7 +3258,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C69" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D69" s="46">
@@ -2998,8 +3270,12 @@
       <c r="F69" s="46">
         <v>42</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>P2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="141">
         <f>A1</f>
         <v>69</v>
@@ -3009,7 +3285,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C70" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D70" s="47">
@@ -3021,8 +3297,12 @@
       <c r="F70" s="47">
         <v>42</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="141">
         <f>A1</f>
         <v>70</v>
@@ -3032,7 +3312,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C71" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D71" s="48">
@@ -3044,8 +3324,12 @@
       <c r="F71" s="48">
         <v>42</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="141">
         <f>A1</f>
         <v>71</v>
@@ -3055,7 +3339,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C72" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D72" s="50">
@@ -3067,8 +3351,12 @@
       <c r="F72" s="50">
         <v>42</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="141">
         <f>A1</f>
         <v>72</v>
@@ -3078,7 +3366,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C73" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D73" s="50">
@@ -3090,8 +3378,12 @@
       <c r="F73" s="50">
         <v>42</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="141">
         <f>A1</f>
         <v>73</v>
@@ -3101,7 +3393,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C74" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D74" s="51">
@@ -3113,8 +3405,12 @@
       <c r="F74" s="51">
         <v>42</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="141">
         <f>A1</f>
         <v>74</v>
@@ -3124,7 +3420,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C75" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D75" s="52">
@@ -3136,8 +3432,12 @@
       <c r="F75" s="52">
         <v>42</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>D2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="141">
         <f>A1</f>
         <v>75</v>
@@ -3147,7 +3447,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C76" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D76" s="53">
@@ -3159,8 +3459,12 @@
       <c r="F76" s="53">
         <v>42</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>D3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="141">
         <f>A1</f>
         <v>76</v>
@@ -3170,7 +3474,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C77" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D77" s="54">
@@ -3182,8 +3486,12 @@
       <c r="F77" s="54">
         <v>42</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>D9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="141">
         <f>A1</f>
         <v>77</v>
@@ -3193,7 +3501,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C78" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D78" s="55">
@@ -3205,8 +3513,12 @@
       <c r="F78" s="55">
         <v>42</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>D8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="141">
         <f>A1</f>
         <v>78</v>
@@ -3216,7 +3528,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C79" s="56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D79" s="56">
@@ -3228,8 +3540,12 @@
       <c r="F79" s="56">
         <v>42</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="141">
         <f>A1</f>
         <v>79</v>
@@ -3239,7 +3555,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C80" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D80" s="57">
@@ -3251,8 +3567,12 @@
       <c r="F80" s="57">
         <v>42</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="141">
         <f>A1</f>
         <v>80</v>
@@ -3262,7 +3582,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C81" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D81" s="58">
@@ -3274,8 +3594,12 @@
       <c r="F81" s="58">
         <v>42</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="141">
         <f>A1</f>
         <v>81</v>
@@ -3285,7 +3609,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C82" s="59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D82" s="59">
@@ -3297,8 +3621,12 @@
       <c r="F82" s="59">
         <v>42</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="141">
         <f>A1</f>
         <v>82</v>
@@ -3308,7 +3636,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C83" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D83" s="141">
@@ -3320,8 +3648,12 @@
       <c r="F83" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="141">
         <f>A1</f>
         <v>83</v>
@@ -3331,7 +3663,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C84" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D84" s="141">
@@ -3343,8 +3675,12 @@
       <c r="F84" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="141">
         <f>A1</f>
         <v>84</v>
@@ -3354,7 +3690,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C85" s="62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D85" s="141">
@@ -3366,8 +3702,12 @@
       <c r="F85" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="141">
         <f>A1</f>
         <v>85</v>
@@ -3377,7 +3717,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C86" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D86" s="141">
@@ -3389,8 +3729,12 @@
       <c r="F86" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="141">
         <f>A1</f>
         <v>86</v>
@@ -3400,7 +3744,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C87" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D87" s="141">
@@ -3412,8 +3756,12 @@
       <c r="F87" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="141">
         <f>A1</f>
         <v>87</v>
@@ -3423,7 +3771,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C88" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D88" s="141">
@@ -3435,8 +3783,12 @@
       <c r="F88" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="141">
         <f>A1</f>
         <v>88</v>
@@ -3446,7 +3798,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C89" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D89" s="141">
@@ -3458,8 +3810,12 @@
       <c r="F89" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="141">
         <f>A1</f>
         <v>89</v>
@@ -3469,7 +3825,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C90" s="67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D90" s="141">
@@ -3481,8 +3837,12 @@
       <c r="F90" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="141">
         <f>A1</f>
         <v>90</v>
@@ -3492,7 +3852,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C91" s="68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D91" s="141">
@@ -3504,8 +3864,12 @@
       <c r="F91" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="141">
         <f>A1</f>
         <v>91</v>
@@ -3515,7 +3879,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C92" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D92" s="141">
@@ -3527,8 +3891,12 @@
       <c r="F92" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="141">
         <f>A1</f>
         <v>92</v>
@@ -3538,7 +3906,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C93" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D93" s="141">
@@ -3550,8 +3918,12 @@
       <c r="F93" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="141">
         <f>A1</f>
         <v>93</v>
@@ -3561,7 +3933,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C94" s="71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D94" s="141">
@@ -3573,8 +3945,12 @@
       <c r="F94" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="141">
         <f>A1</f>
         <v>94</v>
@@ -3584,7 +3960,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C95" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D95" s="141">
@@ -3596,8 +3972,12 @@
       <c r="F95" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="141">
         <f>A1</f>
         <v>95</v>
@@ -3607,7 +3987,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C96" s="73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D96" s="141">
@@ -3619,8 +3999,12 @@
       <c r="F96" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="141">
         <f>A1</f>
         <v>96</v>
@@ -3630,7 +4014,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C97" s="74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D97" s="141">
@@ -3642,8 +4026,12 @@
       <c r="F97" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="141">
         <f>A1</f>
         <v>97</v>
@@ -3653,7 +4041,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C98" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D98" s="141">
@@ -3665,8 +4053,12 @@
       <c r="F98" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="141">
         <f>A1</f>
         <v>98</v>
@@ -3676,7 +4068,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C99" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D99" s="141">
@@ -3688,8 +4080,12 @@
       <c r="F99" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="141">
         <f>A1</f>
         <v>99</v>
@@ -3699,7 +4095,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C100" s="77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D100" s="141">
@@ -3711,8 +4107,12 @@
       <c r="F100" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="141">
         <f>A1</f>
         <v>100</v>
@@ -3722,7 +4122,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C101" s="78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D101" s="141">
@@ -3734,8 +4134,12 @@
       <c r="F101" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="141">
         <f>A1</f>
         <v>101</v>
@@ -3745,7 +4149,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C102" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D102" s="141">
@@ -3757,8 +4161,12 @@
       <c r="F102" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="141">
         <f>A1</f>
         <v>102</v>
@@ -3768,7 +4176,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C103" s="80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D103" s="141">
@@ -3780,8 +4188,12 @@
       <c r="F103" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="141">
         <f>A1</f>
         <v>103</v>
@@ -3791,7 +4203,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C104" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D104" s="141">
@@ -3803,8 +4215,12 @@
       <c r="F104" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="141">
         <f>A1</f>
         <v>104</v>
@@ -3814,7 +4230,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C105" s="82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D105" s="141">
@@ -3826,8 +4242,12 @@
       <c r="F105" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="141">
         <f>A1</f>
         <v>105</v>
@@ -3837,7 +4257,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C106" s="83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D106" s="141">
@@ -3849,8 +4269,12 @@
       <c r="F106" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="141">
         <f>A1</f>
         <v>106</v>
@@ -3860,7 +4284,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C107" s="84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D107" s="141">
@@ -3872,8 +4296,12 @@
       <c r="F107" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="141">
         <f>A1</f>
         <v>107</v>
@@ -3883,7 +4311,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C108" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D108" s="141">
@@ -3895,8 +4323,12 @@
       <c r="F108" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="141">
         <f>A1</f>
         <v>108</v>
@@ -3906,7 +4338,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C109" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D109" s="141">
@@ -3918,8 +4350,12 @@
       <c r="F109" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="141">
         <f>A1</f>
         <v>109</v>
@@ -3929,7 +4365,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C110" s="87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D110" s="141">
@@ -3941,8 +4377,12 @@
       <c r="F110" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="141">
         <f>A1</f>
         <v>110</v>
@@ -3952,7 +4392,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C111" s="88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D111" s="141">
@@ -3964,8 +4404,12 @@
       <c r="F111" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="141">
         <f>A1</f>
         <v>111</v>
@@ -3975,7 +4419,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C112" s="89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D112" s="141">
@@ -3987,8 +4431,12 @@
       <c r="F112" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="141">
         <f>A1</f>
         <v>112</v>
@@ -3998,7 +4446,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C113" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D113" s="141">
@@ -4010,8 +4458,12 @@
       <c r="F113" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="141">
         <f>A1</f>
         <v>113</v>
@@ -4021,7 +4473,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C114" s="91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D114" s="141">
@@ -4033,8 +4485,12 @@
       <c r="F114" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="141">
         <f>A1</f>
         <v>114</v>
@@ -4044,7 +4500,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C115" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D115" s="141">
@@ -4056,8 +4512,12 @@
       <c r="F115" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="141">
         <f>A1</f>
         <v>115</v>
@@ -4067,7 +4527,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C116" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D116" s="141">
@@ -4079,8 +4539,12 @@
       <c r="F116" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="141">
         <f>A1</f>
         <v>116</v>
@@ -4090,7 +4554,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C117" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D117" s="141">
@@ -4102,8 +4566,12 @@
       <c r="F117" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="141">
         <f>A1</f>
         <v>117</v>
@@ -4113,7 +4581,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C118" s="95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D118" s="141">
@@ -4125,8 +4593,12 @@
       <c r="F118" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="141">
         <f>A1</f>
         <v>118</v>
@@ -4136,7 +4608,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C119" s="96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D119" s="141">
@@ -4148,8 +4620,12 @@
       <c r="F119" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="141">
         <f>A1</f>
         <v>119</v>
@@ -4159,7 +4635,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C120" s="97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D120" s="141">
@@ -4171,8 +4647,12 @@
       <c r="F120" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="141">
         <f>A1</f>
         <v>120</v>
@@ -4182,7 +4662,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C121" s="98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D121" s="141">
@@ -4194,8 +4674,12 @@
       <c r="F121" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="141">
         <f>A1</f>
         <v>121</v>
@@ -4205,7 +4689,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C122" s="99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D122" s="141">
@@ -4217,8 +4701,12 @@
       <c r="F122" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="141">
         <f>A1</f>
         <v>122</v>
@@ -4228,7 +4716,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C123" s="100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D123" s="141">
@@ -4240,8 +4728,12 @@
       <c r="F123" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="141">
         <f>A1</f>
         <v>123</v>
@@ -4251,7 +4743,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C124" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D124" s="141">
@@ -4263,8 +4755,12 @@
       <c r="F124" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="141">
         <f>A1</f>
         <v>124</v>
@@ -4274,7 +4770,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C125" s="102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D125" s="141">
@@ -4286,8 +4782,12 @@
       <c r="F125" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="141">
         <f>A1</f>
         <v>125</v>
@@ -4297,7 +4797,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C126" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D126" s="141">
@@ -4309,8 +4809,12 @@
       <c r="F126" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="141">
         <f>A1</f>
         <v>126</v>
@@ -4320,7 +4824,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C127" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D127" s="141">
@@ -4332,8 +4836,12 @@
       <c r="F127" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="141">
         <f>A1</f>
         <v>127</v>
@@ -4343,7 +4851,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C128" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D128" s="141">
@@ -4355,8 +4863,12 @@
       <c r="F128" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="141">
         <f>A1</f>
         <v>128</v>
@@ -4366,7 +4878,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C129" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D129" s="141">
@@ -4378,8 +4890,12 @@
       <c r="F129" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="141">
         <f>A1</f>
         <v>129</v>
@@ -4389,7 +4905,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C130" s="107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D130" s="141">
@@ -4401,8 +4917,12 @@
       <c r="F130" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="141">
         <f>A1</f>
         <v>130</v>
@@ -4412,7 +4932,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C131" s="108">
-        <f t="shared" ref="C131:C164" si="4">A$1/100</f>
+        <f t="shared" ref="C131:C164" si="6">A$1/100</f>
         <v>31415.926535897932</v>
       </c>
       <c r="D131" s="141">
@@ -4424,8 +4944,12 @@
       <c r="F131" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="185" t="str">
+        <f t="shared" ref="G131:G164" ca="1" si="7">CELL("format",C131)</f>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="141">
         <f>A1</f>
         <v>131</v>
@@ -4435,7 +4959,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C132" s="109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D132" s="141">
@@ -4447,8 +4971,12 @@
       <c r="F132" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="141">
         <f>A1</f>
         <v>132</v>
@@ -4458,7 +4986,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C133" s="110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D133" s="141">
@@ -4470,8 +4998,12 @@
       <c r="F133" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="141">
         <f>A1</f>
         <v>133</v>
@@ -4481,7 +5013,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C134" s="111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D134" s="141">
@@ -4493,8 +5025,12 @@
       <c r="F134" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="141">
         <f>A1</f>
         <v>134</v>
@@ -4504,7 +5040,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C135" s="112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D135" s="141">
@@ -4516,8 +5052,12 @@
       <c r="F135" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="141">
         <f>A1</f>
         <v>135</v>
@@ -4527,7 +5067,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C136" s="113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D136" s="141">
@@ -4539,8 +5079,12 @@
       <c r="F136" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="141">
         <f>A1</f>
         <v>136</v>
@@ -4550,7 +5094,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C137" s="114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D137" s="141">
@@ -4562,8 +5106,12 @@
       <c r="F137" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="141">
         <f>A1</f>
         <v>137</v>
@@ -4573,7 +5121,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C138" s="115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D138" s="141">
@@ -4585,8 +5133,12 @@
       <c r="F138" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="141">
         <f>A1</f>
         <v>138</v>
@@ -4596,7 +5148,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C139" s="116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D139" s="141">
@@ -4608,8 +5160,12 @@
       <c r="F139" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="141">
         <f>A1</f>
         <v>139</v>
@@ -4619,7 +5175,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C140" s="117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D140" s="141">
@@ -4631,8 +5187,12 @@
       <c r="F140" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="141">
         <f>A1</f>
         <v>140</v>
@@ -4642,7 +5202,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C141" s="118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D141" s="141">
@@ -4654,8 +5214,12 @@
       <c r="F141" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="141">
         <f>A1</f>
         <v>141</v>
@@ -4665,7 +5229,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C142" s="119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D142" s="141">
@@ -4677,8 +5241,12 @@
       <c r="F142" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="141">
         <f>A1</f>
         <v>142</v>
@@ -4688,7 +5256,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C143" s="120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D143" s="141">
@@ -4700,8 +5268,12 @@
       <c r="F143" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="141">
         <f>A1</f>
         <v>143</v>
@@ -4711,7 +5283,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C144" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D144" s="141">
@@ -4723,8 +5295,12 @@
       <c r="F144" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="141">
         <f>A1</f>
         <v>144</v>
@@ -4734,7 +5310,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C145" s="122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D145" s="141">
@@ -4746,8 +5322,12 @@
       <c r="F145" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="141">
         <f>A1</f>
         <v>145</v>
@@ -4757,7 +5337,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C146" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D146" s="141">
@@ -4769,8 +5349,12 @@
       <c r="F146" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="141">
         <f>A1</f>
         <v>146</v>
@@ -4780,7 +5364,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C147" s="124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D147" s="141">
@@ -4792,8 +5376,12 @@
       <c r="F147" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="141">
         <f>A1</f>
         <v>147</v>
@@ -4803,7 +5391,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C148" s="125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D148" s="141">
@@ -4815,8 +5403,12 @@
       <c r="F148" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="141">
         <f>A1</f>
         <v>148</v>
@@ -4826,7 +5418,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C149" s="126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D149" s="141">
@@ -4838,8 +5430,12 @@
       <c r="F149" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="141">
         <f>A1</f>
         <v>149</v>
@@ -4849,7 +5445,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C150" s="127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D150" s="141">
@@ -4861,8 +5457,12 @@
       <c r="F150" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="141">
         <f>A1</f>
         <v>150</v>
@@ -4872,7 +5472,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C151" s="128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D151" s="141">
@@ -4884,8 +5484,12 @@
       <c r="F151" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="141">
         <f>A1</f>
         <v>151</v>
@@ -4895,7 +5499,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C152" s="129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D152" s="141">
@@ -4907,8 +5511,12 @@
       <c r="F152" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="141">
         <f>A1</f>
         <v>152</v>
@@ -4918,7 +5526,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C153" s="130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D153" s="141">
@@ -4930,8 +5538,12 @@
       <c r="F153" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="141">
         <f>A1</f>
         <v>153</v>
@@ -4941,7 +5553,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C154" s="131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D154" s="141">
@@ -4953,8 +5565,12 @@
       <c r="F154" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="141">
         <f>A1</f>
         <v>154</v>
@@ -4964,7 +5580,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C155" s="132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D155" s="141">
@@ -4976,8 +5592,12 @@
       <c r="F155" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="141">
         <f>A1</f>
         <v>155</v>
@@ -4987,7 +5607,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C156" s="133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D156" s="141">
@@ -4999,8 +5619,12 @@
       <c r="F156" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="141">
         <f>A1</f>
         <v>156</v>
@@ -5010,7 +5634,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C157" s="134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D157" s="141">
@@ -5022,8 +5646,12 @@
       <c r="F157" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="141">
         <f>A1</f>
         <v>157</v>
@@ -5033,7 +5661,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C158" s="135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D158" s="141">
@@ -5045,8 +5673,12 @@
       <c r="F158" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="141">
         <f>A1</f>
         <v>158</v>
@@ -5056,7 +5688,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C159" s="136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D159" s="141">
@@ -5068,8 +5700,12 @@
       <c r="F159" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="141">
         <f>A1</f>
         <v>159</v>
@@ -5079,7 +5715,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C160" s="137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D160" s="141">
@@ -5091,8 +5727,12 @@
       <c r="F160" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="141">
         <f>A1</f>
         <v>160</v>
@@ -5102,7 +5742,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C161" s="138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D161" s="141">
@@ -5114,8 +5754,12 @@
       <c r="F161" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="141">
         <f>A1</f>
         <v>161</v>
@@ -5125,7 +5769,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C162" s="139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D162" s="141">
@@ -5137,8 +5781,12 @@
       <c r="F162" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="141">
         <f>A1</f>
         <v>162</v>
@@ -5148,7 +5796,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C163" s="140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D163" s="141">
@@ -5160,8 +5808,12 @@
       <c r="F163" s="141">
         <v>42</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="141">
         <f>A1</f>
         <v>163</v>
@@ -5171,7 +5823,7 @@
         <v>3141592.653589793</v>
       </c>
       <c r="C164" s="141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="D164" s="141">
@@ -5182,6 +5834,10 @@
       </c>
       <c r="F164" s="141">
         <v>42</v>
+      </c>
+      <c r="G164" s="185" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>G</v>
       </c>
     </row>
   </sheetData>
@@ -5192,27 +5848,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>PI()*10^6/100</f>
         <v>31415.926535897932</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39">
         <f>A$1</f>
         <v>31415.926535897932</v>
@@ -5220,744 +5877,892 @@
       <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="str">
+        <f ca="1">CELL("format",A2)</f>
+        <v>,0</v>
+      </c>
+      <c r="D2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>68</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="str">
-        <f>C$2&amp;D2&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H38" si="0">D$2&amp;E2&amp;F$2&amp;(ROW()-1)&amp;G$2</f>
         <v>Assert.Equal("31.416", results.First(o =&gt; o.Name == "B1").Text);</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <f>"new MappingExpression() { Name = ""B"&amp;(ROW()-1)&amp;""", Cell = ""B"&amp;(ROW()-1)&amp;""", Expression = ""=A1"", NumFormatCode="""&amp;B2&amp;""" },"</f>
         <v>new MappingExpression() { Name = "B1", Cell = "B1", Expression = "=A1", NumFormatCode="#.##0" },</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="40">
-        <f t="shared" ref="A3:A38" si="0">A$1</f>
+        <f t="shared" ref="A3:A38" si="1">A$1</f>
         <v>31415.926535897932</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C38" ca="1" si="2">CELL("format",A3)</f>
+        <v>,2</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="G3" t="str">
-        <f>C$2&amp;D3&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("31.415,93", results.First(o =&gt; o.Name == "B2").Text);</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H38" si="1">"new MappingExpression() { Name = ""B"&amp;(ROW()-1)&amp;""", Cell = ""B"&amp;(ROW()-1)&amp;""", Expression = ""=A1"", NumFormatCode="""&amp;B3&amp;""" },"</f>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I38" si="3">"new MappingExpression() { Name = ""B"&amp;(ROW()-1)&amp;""", Cell = ""B"&amp;(ROW()-1)&amp;""", Expression = ""=A1"", NumFormatCode="""&amp;B3&amp;""" },"</f>
         <v>new MappingExpression() { Name = "B2", Cell = "B2", Expression = "=A1", NumFormatCode="#.##0,00" },</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="168">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="C4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>,0</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G4" t="str">
-        <f>C$2&amp;D4&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("31.416  ", results.First(o =&gt; o.Name == "B3").Text);</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B3", Cell = "B3", Expression = "=A1", NumFormatCode="#.##0 _€;-#.##0 _€" },</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="169">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B3", Cell = "B3", Expression = "=A1", NumFormatCode="#.##0 _€;-#.##0 _€" },</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="169">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="C5" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>,0-</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="str">
-        <f>C$2&amp;D5&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("31.416  ", results.First(o =&gt; o.Name == "B4").Text);</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B4", Cell = "B4", Expression = "=A1", NumFormatCode="#.##0 _€;[Red]-#.##0 _€" },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="170">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B4", Cell = "B4", Expression = "=A1", NumFormatCode="#.##0 _€;[Red]-#.##0 _€" },</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="170">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="C6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>,2</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="str">
-        <f>C$2&amp;D6&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("31.415,93  ", results.First(o =&gt; o.Name == "B5").Text);</v>
       </c>
-      <c r="H6" t="str">
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B5", Cell = "B5", Expression = "=A1", NumFormatCode="#.##0,00 _€;-#.##0,00 _€" },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="171">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B5", Cell = "B5", Expression = "=A1", NumFormatCode="#.##0,00 _€;-#.##0,00 _€" },</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="171">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="C7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>,2-</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G7" t="str">
-        <f>C$2&amp;D7&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("31.415,93  ", results.First(o =&gt; o.Name == "B6").Text);</v>
       </c>
-      <c r="H7" t="str">
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B6", Cell = "B6", Expression = "=A1", NumFormatCode="#.##0,00 _€;[Red]-#.##0,00 _€" },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B6", Cell = "B6", Expression = "=A1", NumFormatCode="#.##0,00 _€;[Red]-#.##0,00 _€" },</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="C8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>C0</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G8" t="str">
-        <f>C$2&amp;D8&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("31.416 €", results.First(o =&gt; o.Name == "B7").Text);</v>
       </c>
-      <c r="H8" t="str">
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B7", Cell = "B7", Expression = "=A1", NumFormatCode="#.##0 €;-#.##0 €" },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="42">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B7", Cell = "B7", Expression = "=A1", NumFormatCode="#.##0 €;-#.##0 €" },</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="42">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="C9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>C0-</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G9" t="str">
-        <f>C$2&amp;D9&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("31.416 €", results.First(o =&gt; o.Name == "B8").Text);</v>
       </c>
-      <c r="H9" t="str">
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B8", Cell = "B8", Expression = "=A1", NumFormatCode="#.##0 €;[Red]-#.##0 €" },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="43">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B8", Cell = "B8", Expression = "=A1", NumFormatCode="#.##0 €;[Red]-#.##0 €" },</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="C10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G10" t="str">
-        <f>C$2&amp;D10&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("31.415,93 €", results.First(o =&gt; o.Name == "B9").Text);</v>
       </c>
-      <c r="H10" t="str">
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B9", Cell = "B9", Expression = "=A1", NumFormatCode="#.##0,00 €;-#.##0,00 €" },</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="42">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B9", Cell = "B9", Expression = "=A1", NumFormatCode="#.##0,00 €;-#.##0,00 €" },</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="C11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>C0-</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G11" t="str">
-        <f>C$2&amp;D11&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("31.416 €", results.First(o =&gt; o.Name == "B10").Text);</v>
       </c>
-      <c r="H11" t="str">
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B10", Cell = "B10", Expression = "=A1", NumFormatCode="#.##0 €;[Red]-#.##0 €" },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B10", Cell = "B10", Expression = "=A1", NumFormatCode="#.##0 €;[Red]-#.##0 €" },</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="C12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G12" t="str">
-        <f>C$2&amp;D12&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("31.415,93 €", results.First(o =&gt; o.Name == "B11").Text);</v>
       </c>
-      <c r="H12" t="str">
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B11", Cell = "B11", Expression = "=A1", NumFormatCode="#.##0,00 €;-#.##0,00 €" },</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="44">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B11", Cell = "B11", Expression = "=A1", NumFormatCode="#.##0,00 €;-#.##0,00 €" },</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="C13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>C2-</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G13" t="str">
-        <f>C$2&amp;D13&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("31.415,93 €", results.First(o =&gt; o.Name == "B12").Text);</v>
       </c>
-      <c r="H13" t="str">
+      <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B12", Cell = "B12", Expression = "=A1", NumFormatCode="#.##0,00 €;[Red]-#.##0,00 €" },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="45">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B12", Cell = "B12", Expression = "=A1", NumFormatCode="#.##0,00 €;[Red]-#.##0,00 €" },</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B14" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="C14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>P0</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G14" t="str">
-        <f>C$2&amp;D14&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("3141593%", results.First(o =&gt; o.Name == "B13").Text);</v>
       </c>
-      <c r="H14" t="str">
+      <c r="I14" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B13", Cell = "B13", Expression = "=A1", NumFormatCode="0%" },</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="46">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B13", Cell = "B13", Expression = "=A1", NumFormatCode="0%" },</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B15" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="C15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>P2</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G15" t="str">
-        <f>C$2&amp;D15&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("3141592,65%", results.First(o =&gt; o.Name == "B14").Text);</v>
       </c>
-      <c r="H15" t="str">
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B14", Cell = "B14", Expression = "=A1", NumFormatCode="0,00%" },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="166">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B14", Cell = "B14", Expression = "=A1", NumFormatCode="0,00%" },</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="166">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B16" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="C16" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>S2</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G16" t="str">
-        <f>C$2&amp;D16&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("3,14E+04", results.First(o =&gt; o.Name == "B15").Text);</v>
       </c>
-      <c r="H16" t="str">
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B15", Cell = "B15", Expression = "=A1", NumFormatCode="0,00E+00" },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="172">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B15", Cell = "B15", Expression = "=A1", NumFormatCode="0,00E+00" },</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="172">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B17" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="C17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>S1</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G17" t="str">
-        <f>C$2&amp;D17&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("31,4E+3", results.First(o =&gt; o.Name == "B16").Text);</v>
       </c>
-      <c r="H17" t="str">
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B16", Cell = "B16", Expression = "=A1", NumFormatCode="##0,0E+0" },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="47">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B16", Cell = "B16", Expression = "=A1", NumFormatCode="##0,0E+0" },</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="47">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B18" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="C18" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>G</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="G18" t="str">
-        <f>C$2&amp;D18&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("31416    ", results.First(o =&gt; o.Name == "B17").Text);</v>
       </c>
-      <c r="H18" t="str">
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B17", Cell = "B17", Expression = "=A1", NumFormatCode="# ?/?" },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="48">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B17", Cell = "B17", Expression = "=A1", NumFormatCode="# ?/?" },</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="48">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B19" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="C19" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>G</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="G19" t="str">
-        <f>C$2&amp;D19&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("31415 63/68", results.First(o =&gt; o.Name == "B18").Text);</v>
       </c>
-      <c r="H19" t="str">
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B18", Cell = "B18", Expression = "=A1", NumFormatCode="# ??/??" },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="50">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B18", Cell = "B18", Expression = "=A1", NumFormatCode="# ??/??" },</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="50">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="C20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>D1</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G20" t="str">
-        <f>C$2&amp;D20&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("3/1/1986", results.First(o =&gt; o.Name == "B19").Text);</v>
       </c>
-      <c r="H20" t="str">
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B19", Cell = "B19", Expression = "=A1", NumFormatCode="η/μ/εεεε" },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="173">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B19", Cell = "B19", Expression = "=A1", NumFormatCode="η/μ/εεεε" },</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="173">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="C21" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>D1</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="G21" t="str">
-        <f>C$2&amp;D21&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("3-Ιαν-86", results.First(o =&gt; o.Name == "B20").Text);</v>
       </c>
-      <c r="H21" t="str">
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B20", Cell = "B20", Expression = "=A1", NumFormatCode="η-μμμ-εε" },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="174">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B20", Cell = "B20", Expression = "=A1", NumFormatCode="η-μμμ-εε" },</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="174">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="C22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>D2</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G22" t="str">
-        <f>C$2&amp;D22&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("3-Ιαν", results.First(o =&gt; o.Name == "B21").Text);</v>
       </c>
-      <c r="H22" t="str">
+      <c r="I22" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B21", Cell = "B21", Expression = "=A1", NumFormatCode="η-μμμ" },</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="175">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B21", Cell = "B21", Expression = "=A1", NumFormatCode="η-μμμ" },</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="175">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="C23" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>D3</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="G23" t="str">
-        <f>C$2&amp;D23&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("Ιαν-86", results.First(o =&gt; o.Name == "B22").Text);</v>
       </c>
-      <c r="H23" t="str">
+      <c r="I23" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B22", Cell = "B22", Expression = "=A1", NumFormatCode="μμμ-εε" },</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="176">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B22", Cell = "B22", Expression = "=A1", NumFormatCode="μμμ-εε" },</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="176">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="C24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>D7</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="G24" t="str">
-        <f>C$2&amp;D24&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("10:14 μμ", results.First(o =&gt; o.Name == "B23").Text);</v>
       </c>
-      <c r="H24" t="str">
+      <c r="I24" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B23", Cell = "B23", Expression = "=A1", NumFormatCode="ω:λλ AM/PM" },</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="177">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B23", Cell = "B23", Expression = "=A1", NumFormatCode="ω:λλ AM/PM" },</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="177">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="C25" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>D6</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G25" t="str">
-        <f>C$2&amp;D25&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("10:14:13 μμ", results.First(o =&gt; o.Name == "B24").Text);</v>
       </c>
-      <c r="H25" t="str">
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B24", Cell = "B24", Expression = "=A1", NumFormatCode="ω:λλ:δδ AM/PM" },</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="178">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B24", Cell = "B24", Expression = "=A1", NumFormatCode="ω:λλ:δδ AM/PM" },</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="178">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B26" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="C26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>D9</v>
+      </c>
+      <c r="E26" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G26" t="str">
-        <f>C$2&amp;D26&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("22:14", results.First(o =&gt; o.Name == "B25").Text);</v>
       </c>
-      <c r="H26" t="str">
+      <c r="I26" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B25", Cell = "B25", Expression = "=A1", NumFormatCode="ω:λλ" },</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="179">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B25", Cell = "B25", Expression = "=A1", NumFormatCode="ω:λλ" },</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="179">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="C27" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>D8</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="G27" t="str">
-        <f>C$2&amp;D27&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("22:14:13", results.First(o =&gt; o.Name == "B26").Text);</v>
       </c>
-      <c r="H27" t="str">
+      <c r="I27" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B26", Cell = "B26", Expression = "=A1", NumFormatCode="ω:λλ:δδ" },</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="180">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B26", Cell = "B26", Expression = "=A1", NumFormatCode="ω:λλ:δδ" },</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="180">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="C28" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>D1</v>
+      </c>
+      <c r="E28" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="G28" t="str">
-        <f>C$2&amp;D28&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("3/1/1986 22:14", results.First(o =&gt; o.Name == "B27").Text);</v>
       </c>
-      <c r="H28" t="str">
+      <c r="I28" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B27", Cell = "B27", Expression = "=A1", NumFormatCode="η/μ/εεεε ω:λλ" },</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="181">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B27", Cell = "B27", Expression = "=A1", NumFormatCode="η/μ/εεεε ω:λλ" },</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="181">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="C29" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>G</v>
+      </c>
+      <c r="E29" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="G29" t="str">
-        <f>C$2&amp;D29&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("14:13", results.First(o =&gt; o.Name == "B28").Text);</v>
       </c>
-      <c r="H29" t="str">
+      <c r="I29" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B28", Cell = "B28", Expression = "=A1", NumFormatCode="λλ:δδ" },</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="182">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B28", Cell = "B28", Expression = "=A1", NumFormatCode="λλ:δδ" },</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="182">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="C30" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>G</v>
+      </c>
+      <c r="E30" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G30" t="str">
-        <f>C$2&amp;D30&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("14:12,7", results.First(o =&gt; o.Name == "B29").Text);</v>
       </c>
-      <c r="H30" t="str">
+      <c r="I30" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B29", Cell = "B29", Expression = "=A1", NumFormatCode="λλ:δδ,0" },</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B29", Cell = "B29", Expression = "=A1", NumFormatCode="λλ:δδ,0" },</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="C31" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>G</v>
+      </c>
+      <c r="E31" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="G31" t="str">
-        <f>C$2&amp;D31&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("31415,92654", results.First(o =&gt; o.Name == "B30").Text);</v>
       </c>
-      <c r="H31" t="str">
+      <c r="I31" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B30", Cell = "B30", Expression = "=A1", NumFormatCode="@" },</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="183">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B30", Cell = "B30", Expression = "=A1", NumFormatCode="@" },</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="183">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="C32" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>G</v>
+      </c>
+      <c r="E32" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G32" t="str">
-        <f>C$2&amp;D32&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("753982:14:13", results.First(o =&gt; o.Name == "B31").Text);</v>
       </c>
-      <c r="H32" t="str">
+      <c r="I32" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B31", Cell = "B31", Expression = "=A1", NumFormatCode="[ω]:λλ:δδ" },</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B31", Cell = "B31", Expression = "=A1", NumFormatCode="[ω]:λλ:δδ" },</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="C33" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>C0</v>
+      </c>
+      <c r="E33" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="G33" t="str">
-        <f>C$2&amp;D33&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal(" 31.416 € ", results.First(o =&gt; o.Name == "B32").Text);</v>
       </c>
-      <c r="H33" t="str">
+      <c r="I33" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B32", Cell = "B32", Expression = "=A1", NumFormatCode="_-* #.##0 €_-;-* #.##0 €_-;_-* "-" €_-;_-@_-" },</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B32", Cell = "B32", Expression = "=A1", NumFormatCode="_-* #.##0 €_-;-* #.##0 €_-;_-* "-" €_-;_-@_-" },</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="C34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>,0</v>
+      </c>
+      <c r="E34" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="G34" t="str">
-        <f>C$2&amp;D34&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal(" 31.416   ", results.First(o =&gt; o.Name == "B33").Text);</v>
       </c>
-      <c r="H34" t="str">
+      <c r="I34" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B33", Cell = "B33", Expression = "=A1", NumFormatCode="_-* #.##0 _€_-;-* #.##0 _€_-;_-* "-" _€_-;_-@_-" },</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B33", Cell = "B33", Expression = "=A1", NumFormatCode="_-* #.##0 _€_-;-* #.##0 _€_-;_-* "-" _€_-;_-@_-" },</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="C35" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="E35" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G35" t="str">
-        <f>C$2&amp;D35&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal(" 31.415,93 € ", results.First(o =&gt; o.Name == "B34").Text);</v>
       </c>
-      <c r="H35" t="str">
+      <c r="I35" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B34", Cell = "B34", Expression = "=A1", NumFormatCode="_-* #.##0,00 €_-;-* #.##0,00 €_-;_-* "-"?? €_-;_-@_-" },</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B34", Cell = "B34", Expression = "=A1", NumFormatCode="_-* #.##0,00 €_-;-* #.##0,00 €_-;_-* "-"?? €_-;_-@_-" },</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B36" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="C36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>,2</v>
+      </c>
+      <c r="E36" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="G36" t="str">
-        <f>C$2&amp;D36&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal(" 31.415,93   ", results.First(o =&gt; o.Name == "B35").Text);</v>
       </c>
-      <c r="H36" t="str">
+      <c r="I36" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B35", Cell = "B35", Expression = "=A1", NumFormatCode="_-* #.##0,00 _€_-;-* #.##0,00 _€_-;_-* "-"?? _€_-;_-@_-" },</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="167">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B35", Cell = "B35", Expression = "=A1", NumFormatCode="_-* #.##0,00 _€_-;-* #.##0,00 _€_-;_-* "-"?? _€_-;_-@_-" },</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="167">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B37" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="C37" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>G</v>
+      </c>
+      <c r="E37" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G37" t="str">
-        <f>C$2&amp;D37&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("10:14:13 μμ", results.First(o =&gt; o.Name == "B36").Text);</v>
       </c>
-      <c r="H37" t="str">
+      <c r="I37" t="str">
+        <f t="shared" si="3"/>
+        <v>new MappingExpression() { Name = "B36", Cell = "B36", Expression = "=A1", NumFormatCode="[$-408]ω:λλ:δδ AM/PM" },</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="184">
         <f t="shared" si="1"/>
-        <v>new MappingExpression() { Name = "B36", Cell = "B36", Expression = "=A1", NumFormatCode="[$-408]ω:λλ:δδ AM/PM" },</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="184">
-        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="C38" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>G</v>
+      </c>
+      <c r="E38" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G38" t="str">
-        <f>C$2&amp;D38&amp;E$2&amp;(ROW()-1)&amp;F$2</f>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
         <v>Assert.Equal("Παρασκευή, 3 Ιανουάριος 1986", results.First(o =&gt; o.Name == "B37").Text);</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="1"/>
+      <c r="I38" t="str">
+        <f t="shared" si="3"/>
         <v>new MappingExpression() { Name = "B37", Cell = "B37", Expression = "=A1", NumFormatCode="[$-408]ηηηη, η μμμμ εεεε" },</v>
       </c>
     </row>
